--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1880.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1880.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.665473990686751</v>
+        <v>1.776176691055298</v>
       </c>
       <c r="B1">
-        <v>4.330113694745112</v>
+        <v>1.766152143478394</v>
       </c>
       <c r="C1">
-        <v>4.080905379226836</v>
+        <v>2.087800264358521</v>
       </c>
       <c r="D1">
-        <v>1.126212254085564</v>
+        <v>3.892643928527832</v>
       </c>
       <c r="E1">
-        <v>0.6635007682825691</v>
+        <v>3.96714973449707</v>
       </c>
     </row>
   </sheetData>
